--- a/inputData/eco_cost_inputs_GG_fixed.xlsx
+++ b/inputData/eco_cost_inputs_GG_fixed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\GitHubRepo\EcoModel\inputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\GitHubRepo\AWE-Eco\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66067B-B31B-468A-8273-C976B19A6591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61C26DC-9118-4F27-8C03-A665BB93A88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kite" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>[-2.4   8.3  -11.2   5.2]'</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>sigma_max</t>
+  </si>
+  <si>
+    <t>elecSto_type</t>
+  </si>
+  <si>
+    <t>batt.p</t>
+  </si>
+  <si>
+    <t>batt.N</t>
   </si>
 </sst>
 </file>
@@ -626,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4AD09E-FDEF-4026-AC1D-93146C2A9B86}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -718,10 +727,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5144ACA-6792-40EA-A07E-EF86968317B7}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,90 +895,115 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1">
-        <v>60000</v>
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <f>1000000</f>
         <v>1000000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22">
-        <v>100</v>
-      </c>
-    </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23">
-        <v>100</v>
+        <v>58</v>
+      </c>
+      <c r="B23" s="1">
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B24">
-        <v>75</v>
+        <f>10000</f>
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25">
-        <v>30000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B26">
-        <v>1200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27">
-        <v>200</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28">
-        <v>80</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B29">
-        <v>1.1000000000000001</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>54</v>
       </c>
-      <c r="B30">
+      <c r="B33">
         <v>1.1000000000000001</v>
       </c>
     </row>

--- a/inputData/eco_cost_inputs_GG_fixed.xlsx
+++ b/inputData/eco_cost_inputs_GG_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\GitHubRepo\AWE-Eco\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61C26DC-9118-4F27-8C03-A665BB93A88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8101FFE2-3B01-4D27-9B86-395F58311B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,7 +730,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +923,7 @@
         <v>58</v>
       </c>
       <c r="B23" s="1">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">

--- a/inputData/eco_cost_inputs_GG_fixed.xlsx
+++ b/inputData/eco_cost_inputs_GG_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\GitHubRepo\AWE-Eco\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8101FFE2-3B01-4D27-9B86-395F58311B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E396E9-39EA-44BA-90DD-029223181BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kite" sheetId="3" r:id="rId1"/>
@@ -729,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5144ACA-6792-40EA-A07E-EF86968317B7}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1089,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149E8716-C12E-4C74-BB23-8FB9587F4C00}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1119,7 @@
         <v>47</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/inputData/eco_cost_inputs_GG_fixed.xlsx
+++ b/inputData/eco_cost_inputs_GG_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\GitHubRepo\AWE-Eco\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E396E9-39EA-44BA-90DD-029223181BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89969DA-CA9E-42DB-BE08-FE3D2D4BA195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kite" sheetId="3" r:id="rId1"/>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1119,7 @@
         <v>47</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
